--- a/Office Equipment.xlsx
+++ b/Office Equipment.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="10335" windowHeight="8190"/>
+    <workbookView windowWidth="20385" windowHeight="8610" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
   <si>
     <t>id</t>
   </si>
@@ -56,6 +57,147 @@
   </si>
   <si>
     <t>Printer Label</t>
+  </si>
+  <si>
+    <t>Projector</t>
+  </si>
+  <si>
+    <t>Entry Level</t>
+  </si>
+  <si>
+    <t>Short Throw</t>
+  </si>
+  <si>
+    <t>Portable Mini</t>
+  </si>
+  <si>
+    <t>Professional</t>
+  </si>
+  <si>
+    <t>Home Theater</t>
+  </si>
+  <si>
+    <t>Aksesoris Projector</t>
+  </si>
+  <si>
+    <t>Alat Presentasi</t>
+  </si>
+  <si>
+    <t>Layar Projector</t>
+  </si>
+  <si>
+    <t>Asus</t>
+  </si>
+  <si>
+    <t>Acer</t>
+  </si>
+  <si>
+    <t>BenQ</t>
+  </si>
+  <si>
+    <t>Casio</t>
+  </si>
+  <si>
+    <t>Dell</t>
+  </si>
+  <si>
+    <t>Epson</t>
+  </si>
+  <si>
+    <t>Hitachi</t>
+  </si>
+  <si>
+    <t>Infocus</t>
+  </si>
+  <si>
+    <t>LG</t>
+  </si>
+  <si>
+    <t>NEC</t>
+  </si>
+  <si>
+    <t>Panasonic</t>
+  </si>
+  <si>
+    <t>Sharp</t>
+  </si>
+  <si>
+    <t>Optoma</t>
+  </si>
+  <si>
+    <t>Microvision</t>
+  </si>
+  <si>
+    <t>Sony</t>
+  </si>
+  <si>
+    <t>Viewsonic</t>
+  </si>
+  <si>
+    <t>Vivitek</t>
+  </si>
+  <si>
+    <t>Toshiba</t>
+  </si>
+  <si>
+    <t>Scanner</t>
+  </si>
+  <si>
+    <t>Brother</t>
+  </si>
+  <si>
+    <t>Canon</t>
+  </si>
+  <si>
+    <t>Fujitsu</t>
+  </si>
+  <si>
+    <t>Fuji Xerox</t>
+  </si>
+  <si>
+    <t>Magicscan</t>
+  </si>
+  <si>
+    <t>Portable Scanner</t>
+  </si>
+  <si>
+    <t>Regular Scanner</t>
+  </si>
+  <si>
+    <t>Interactive Board</t>
+  </si>
+  <si>
+    <t>EBeam</t>
+  </si>
+  <si>
+    <t>Plus</t>
+  </si>
+  <si>
+    <t>Manual Pulldown Screen</t>
+  </si>
+  <si>
+    <t>Motorized Screen</t>
+  </si>
+  <si>
+    <t>Tripod Screen</t>
+  </si>
+  <si>
+    <t>Fast Fold Screen</t>
+  </si>
+  <si>
+    <t>Aksesoris Layar Projector</t>
+  </si>
+  <si>
+    <t>Office Lain-lain</t>
+  </si>
+  <si>
+    <t>Fax</t>
+  </si>
+  <si>
+    <t>374,55,373,464,137,266,632,631</t>
+  </si>
+  <si>
+    <t>459,27,82,267,83,84,85,86,460,87,88,91,92,114,93,94,96,304</t>
   </si>
 </sst>
 </file>
@@ -63,12 +205,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,7 +235,120 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -100,37 +362,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -138,90 +369,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -230,31 +379,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -266,151 +559,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,6 +596,65 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -462,217 +682,170 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -990,13 +1163,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="J57" sqref="J57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -1006,13 +1179,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>449</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
@@ -1022,54 +1196,638 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="3:3">
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>599</v>
+      </c>
       <c r="C4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="3:3">
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>614</v>
+      </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="3:3">
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>601</v>
+      </c>
       <c r="C6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="3:3">
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>605</v>
+      </c>
       <c r="C7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="3:3">
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>608</v>
+      </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="3:3">
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>609</v>
+      </c>
       <c r="C9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="3:3">
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>606</v>
+      </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="3:3">
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>607</v>
+      </c>
       <c r="C11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="3:3">
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>610</v>
+      </c>
       <c r="C12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="3:3">
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>598</v>
+      </c>
       <c r="C13" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>624</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>677</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>675</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>625</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>627</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>619</v>
+      </c>
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>472</v>
+      </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>160</v>
+      </c>
+      <c r="C22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>459</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>27</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>82</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>267</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>83</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>84</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>85</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>86</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>460</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="4"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>87</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="4"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>88</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="4"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>91</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>92</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>114</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>93</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>94</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>96</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D39" s="4"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <v>304</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D40" s="4"/>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>52</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>374</v>
+      </c>
+      <c r="C42" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>55</v>
+      </c>
+      <c r="C43" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>373</v>
+      </c>
+      <c r="C44" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>464</v>
+      </c>
+      <c r="C45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>137</v>
+      </c>
+      <c r="C46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>266</v>
+      </c>
+      <c r="C47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48">
+        <v>632</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D48" s="3"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49">
+        <v>631</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D49" s="3"/>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50">
+        <v>581</v>
+      </c>
+      <c r="B50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>581</v>
+      </c>
+      <c r="C51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>581</v>
+      </c>
+      <c r="C52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>581</v>
+      </c>
+      <c r="C53" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54">
+        <v>160</v>
+      </c>
+      <c r="B54" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>813</v>
+      </c>
+      <c r="C55" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>814</v>
+      </c>
+      <c r="C56" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <v>815</v>
+      </c>
+      <c r="C57" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <v>816</v>
+      </c>
+      <c r="C58" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
+        <v>822</v>
+      </c>
+      <c r="C59" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60">
+        <v>617</v>
+      </c>
+      <c r="B60" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <v>241</v>
+      </c>
+      <c r="C61" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:B29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1">
+        <v>55</v>
+      </c>
+      <c r="B2" t="str">
+        <f>CONCATENATE(A1,",",A2)</f>
+        <v>374,55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1">
+        <v>373</v>
+      </c>
+      <c r="B3" t="str">
+        <f>CONCATENATE(B2,",",A3)</f>
+        <v>374,55,373</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1">
+        <v>464</v>
+      </c>
+      <c r="B4" t="str">
+        <f>CONCATENATE(B3,",",A4)</f>
+        <v>374,55,373,464</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1">
+        <v>137</v>
+      </c>
+      <c r="B5" t="str">
+        <f>CONCATENATE(B4,",",A5)</f>
+        <v>374,55,373,464,137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1">
+        <v>266</v>
+      </c>
+      <c r="B6" t="str">
+        <f>CONCATENATE(B5,",",A6)</f>
+        <v>374,55,373,464,137,266</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1">
+        <v>632</v>
+      </c>
+      <c r="B7" t="str">
+        <f>CONCATENATE(B6,",",A7)</f>
+        <v>374,55,373,464,137,266,632</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1">
+        <v>631</v>
+      </c>
+      <c r="B8" t="str">
+        <f>CONCATENATE(B7,",",A8)</f>
+        <v>374,55,373,464,137,266,632,631</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1"/>
+      <c r="B10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1"/>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="1"/>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Office Equipment.xlsx
+++ b/Office Equipment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8610" activeTab="1"/>
+    <workbookView windowWidth="20385" windowHeight="8610"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59">
   <si>
     <t>id</t>
   </si>
@@ -192,12 +192,6 @@
   </si>
   <si>
     <t>Fax</t>
-  </si>
-  <si>
-    <t>374,55,373,464,137,266,632,631</t>
-  </si>
-  <si>
-    <t>459,27,82,267,83,84,85,86,460,87,88,91,92,114,93,94,96,304</t>
   </si>
 </sst>
 </file>
@@ -205,10 +199,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -235,7 +229,82 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,14 +319,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,85 +349,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -361,16 +363,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -391,49 +385,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,37 +529,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -487,49 +541,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,36 +560,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -600,27 +588,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -641,33 +612,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -682,153 +626,197 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -839,13 +827,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1165,8 +1153,8 @@
   <sheetPr/>
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="J57" sqref="J57"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="3"/>
@@ -1183,10 +1171,10 @@
       <c r="A2">
         <v>449</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
@@ -1352,10 +1340,10 @@
       <c r="A23">
         <v>459</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="3"/>
+      <c r="D23" s="4"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
@@ -1570,19 +1558,19 @@
       <c r="A48">
         <v>632</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D48" s="3"/>
+      <c r="D48" s="4"/>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
         <v>631</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D49" s="3"/>
+      <c r="D49" s="4"/>
     </row>
     <row r="50" spans="1:2">
       <c r="A50">
@@ -1689,145 +1677,70 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelRow="7" outlineLevelCol="1"/>
+  <cols>
+    <col min="2" max="2" width="22.9"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1">
-        <v>374</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1">
-        <v>55</v>
+        <v>813</v>
       </c>
       <c r="B2" t="str">
         <f>CONCATENATE(A1,",",A2)</f>
-        <v>374,55</v>
+        <v>160,813</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1">
-        <v>373</v>
+        <v>814</v>
       </c>
       <c r="B3" t="str">
         <f>CONCATENATE(B2,",",A3)</f>
-        <v>374,55,373</v>
+        <v>160,813,814</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1">
-        <v>464</v>
+        <v>815</v>
       </c>
       <c r="B4" t="str">
         <f>CONCATENATE(B3,",",A4)</f>
-        <v>374,55,373,464</v>
+        <v>160,813,814,815</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1">
-        <v>137</v>
+        <v>816</v>
       </c>
       <c r="B5" t="str">
         <f>CONCATENATE(B4,",",A5)</f>
-        <v>374,55,373,464,137</v>
+        <v>160,813,814,815,816</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1">
-        <v>266</v>
+        <v>822</v>
       </c>
       <c r="B6" t="str">
         <f>CONCATENATE(B5,",",A6)</f>
-        <v>374,55,373,464,137,266</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1">
-        <v>632</v>
-      </c>
-      <c r="B7" t="str">
-        <f>CONCATENATE(B6,",",A7)</f>
-        <v>374,55,373,464,137,266,632</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1">
-        <v>631</v>
-      </c>
-      <c r="B8" t="str">
-        <f>CONCATENATE(B7,",",A8)</f>
-        <v>374,55,373,464,137,266,632,631</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1"/>
-      <c r="B10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="1"/>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="1"/>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29" t="s">
-        <v>60</v>
+        <v>160,813,814,815,816,822</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" s="2">
+        <v>1.60813814815816e+17</v>
       </c>
     </row>
   </sheetData>
